--- a/doc/Precios.xlsx
+++ b/doc/Precios.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
   <si>
     <t xml:space="preserve">Precio (U$S)</t>
   </si>
@@ -31,6 +31,9 @@
     <t xml:space="preserve">X 1000</t>
   </si>
   <si>
+    <t xml:space="preserve">X Ctd de poses y copias</t>
+  </si>
+  <si>
     <t xml:space="preserve">Planchas</t>
   </si>
   <si>
@@ -46,6 +49,21 @@
     <t xml:space="preserve">GTO46</t>
   </si>
   <si>
+    <t xml:space="preserve">Arreglo plancha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lavado máquina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tinta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X Kg CMYK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X Kg Pantone</t>
+  </si>
+  <si>
     <t xml:space="preserve">Plegado</t>
   </si>
   <si>
@@ -64,6 +82,9 @@
     <t xml:space="preserve">X Cantidad (por dificultad 1-4)</t>
   </si>
   <si>
+    <t xml:space="preserve">Descartonar</t>
+  </si>
+  <si>
     <t xml:space="preserve">Perforado</t>
   </si>
   <si>
@@ -73,7 +94,13 @@
     <t xml:space="preserve">X Cantidad</t>
   </si>
   <si>
+    <t xml:space="preserve">Trazado</t>
+  </si>
+  <si>
     <t xml:space="preserve">Laqueado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compilar</t>
   </si>
   <si>
     <t xml:space="preserve">Impresión</t>
@@ -91,6 +118,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -112,6 +140,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -186,14 +215,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="A35" activeCellId="0" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.97"/>
   </cols>
   <sheetData>
@@ -209,21 +239,16 @@
       <c r="B2" s="0" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="C2" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="2" t="s">
-        <v>4</v>
+      <c r="B5" s="0" t="s">
+        <v>5</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>6</v>
@@ -231,95 +256,192 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>7</v>
       </c>
     </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="0" t="s">
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="B13" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="0" t="s">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C18" s="0" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="0" t="s">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="0" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="C21" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="0" t="s">
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="0" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="0" t="s">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C37" s="0" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C38" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
